--- a/data/CWENE (TRY).xlsx
+++ b/data/CWENE (TRY).xlsx
@@ -2852,6 +2852,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-5585301541</v>
+      </c>
       <c r="C108">
         <v>-4859013207.437845</v>
       </c>
@@ -3059,6 +3062,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>16066183582</v>
+      </c>
       <c r="C5">
         <v>11085496326.649443</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>2823162365.066813</v>
       </c>
       <c r="F5">
-        <v>12895681078.842392</v>
+        <v>13457283222</v>
       </c>
       <c r="G5">
         <v>9257209165.928072</v>
@@ -3100,6 +3106,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>575951295</v>
+      </c>
       <c r="C6">
         <v>251736821.4946484</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>56115089.34118518</v>
       </c>
       <c r="F6">
-        <v>466899825.21748525</v>
+        <v>487233140</v>
       </c>
       <c r="G6">
         <v>437539127.5918235</v>
@@ -4787,6 +4796,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>4980687255.350557</v>
+      </c>
       <c r="C5">
         <v>4650407269.57217</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>2823162365.066813</v>
       </c>
       <c r="F5">
-        <v>3638471912.91432</v>
+        <v>4200074056.071928</v>
       </c>
       <c r="G5">
         <v>3443102197.854475</v>
@@ -4825,6 +4837,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>324214473.5053516</v>
+      </c>
       <c r="C6">
         <v>100519400.46988922</v>
       </c>
@@ -4835,7 +4850,7 @@
         <v>56115089.34118518</v>
       </c>
       <c r="F6">
-        <v>29360697.62566173</v>
+        <v>49694012.40817648</v>
       </c>
       <c r="G6">
         <v>340021900.9033456</v>
@@ -6302,17 +6317,20 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>16066183582</v>
+      </c>
       <c r="C5">
-        <v>14723968239.563763</v>
+        <v>15285570382.72137</v>
       </c>
       <c r="D5">
-        <v>13516663167.846067</v>
+        <v>14078265311.003675</v>
       </c>
       <c r="E5">
-        <v>11903161044.75973</v>
+        <v>12464763187.917337</v>
       </c>
       <c r="F5">
-        <v>12895681078.842392</v>
+        <v>13457283222</v>
       </c>
       <c r="G5">
         <v>14225998517.304203</v>
@@ -6334,17 +6352,20 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>575951295</v>
+      </c>
       <c r="C6">
-        <v>281097519.1203101</v>
+        <v>301430833.9028249</v>
       </c>
       <c r="D6">
-        <v>520600019.5537665</v>
+        <v>540933334.3362812</v>
       </c>
       <c r="E6">
-        <v>467745750.2360666</v>
+        <v>488079065.0185814</v>
       </c>
       <c r="F6">
-        <v>466899825.21748525</v>
+        <v>487233140</v>
       </c>
       <c r="G6">
         <v>536054273.2632286</v>
